--- a/vuejpa/Domain 구성.xlsx
+++ b/vuejpa/Domain 구성.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\study\vuejpa\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA47BD76-3FED-418F-BF7F-61DB934E6142}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C693FC59-2405-4F81-AF93-E912243EB33A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -95,10 +95,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>유저의 등급 (일반유저, VIP, 어드민)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>유저의 이메일</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -136,6 +132,10 @@
   </si>
   <si>
     <t>설명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유저의 등급 (Silver, Gold, VIP, Admin)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -323,18 +323,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
@@ -352,6 +343,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -636,7 +636,7 @@
   <dimension ref="B2:M20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -648,17 +648,17 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B2" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C2" s="12" t="s">
+      <c r="B2" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" s="8" t="s">
         <v>26</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="E2" s="11" t="s">
-        <v>27</v>
       </c>
       <c r="F2" s="2"/>
       <c r="H2" s="2"/>
@@ -669,16 +669,16 @@
       <c r="M2" s="2"/>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B3" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C3" s="13" t="s">
+      <c r="B3" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="D3" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F3" s="2"/>
@@ -690,14 +690,14 @@
       <c r="M3" s="2"/>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B4" s="3"/>
-      <c r="C4" s="14" t="s">
+      <c r="B4" s="15"/>
+      <c r="C4" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="D4" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="4" t="s">
         <v>14</v>
       </c>
       <c r="F4" s="2"/>
@@ -709,14 +709,14 @@
       <c r="M4" s="2"/>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B5" s="3"/>
-      <c r="C5" s="14" t="s">
+      <c r="B5" s="15"/>
+      <c r="C5" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="14" t="s">
+      <c r="D5" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="4" t="s">
         <v>15</v>
       </c>
       <c r="F5" s="2"/>
@@ -728,14 +728,14 @@
       <c r="M5" s="2"/>
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B6" s="3"/>
-      <c r="C6" s="15" t="s">
+      <c r="B6" s="15"/>
+      <c r="C6" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="15" t="s">
+      <c r="D6" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="E6" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F6" s="2"/>
@@ -747,15 +747,15 @@
       <c r="M6" s="2"/>
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B7" s="3"/>
-      <c r="C7" s="15" t="s">
+      <c r="B7" s="15"/>
+      <c r="C7" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="15" t="s">
+      <c r="D7" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="E7" s="7" t="s">
-        <v>17</v>
+      <c r="E7" s="5" t="s">
+        <v>27</v>
       </c>
       <c r="F7" s="2"/>
       <c r="H7" s="2"/>
@@ -766,15 +766,15 @@
       <c r="M7" s="2"/>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B8" s="3"/>
-      <c r="C8" s="15" t="s">
+      <c r="B8" s="15"/>
+      <c r="C8" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="15" t="s">
+      <c r="D8" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="E8" s="7" t="s">
-        <v>19</v>
+      <c r="E8" s="5" t="s">
+        <v>18</v>
       </c>
       <c r="F8" s="2"/>
       <c r="H8" s="2"/>
@@ -785,15 +785,15 @@
       <c r="M8" s="2"/>
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B9" s="3"/>
-      <c r="C9" s="15" t="s">
+      <c r="B9" s="15"/>
+      <c r="C9" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="15" t="s">
+      <c r="D9" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="E9" s="7" t="s">
-        <v>18</v>
+      <c r="E9" s="5" t="s">
+        <v>17</v>
       </c>
       <c r="F9" s="2"/>
       <c r="H9" s="2"/>
@@ -804,15 +804,15 @@
       <c r="M9" s="2"/>
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B10" s="3"/>
-      <c r="C10" s="15" t="s">
+      <c r="B10" s="15"/>
+      <c r="C10" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="15" t="s">
+      <c r="D10" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="E10" s="7" t="s">
-        <v>20</v>
+      <c r="E10" s="5" t="s">
+        <v>19</v>
       </c>
       <c r="F10" s="2"/>
       <c r="H10" s="2"/>
@@ -823,15 +823,15 @@
       <c r="M10" s="2"/>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B11" s="3"/>
-      <c r="C11" s="15" t="s">
+      <c r="B11" s="15"/>
+      <c r="C11" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="15" t="s">
+      <c r="D11" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="E11" s="7" t="s">
-        <v>21</v>
+      <c r="E11" s="5" t="s">
+        <v>20</v>
       </c>
       <c r="F11" s="2"/>
       <c r="H11" s="2"/>
@@ -842,15 +842,15 @@
       <c r="M11" s="2"/>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B12" s="8"/>
-      <c r="C12" s="16" t="s">
+      <c r="B12" s="16"/>
+      <c r="C12" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="D12" s="16" t="s">
+      <c r="D12" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="E12" s="9" t="s">
-        <v>22</v>
+      <c r="E12" s="6" t="s">
+        <v>21</v>
       </c>
       <c r="F12" s="2"/>
       <c r="H12" s="2"/>

--- a/vuejpa/Domain 구성.xlsx
+++ b/vuejpa/Domain 구성.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\study\vuejpa\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C693FC59-2405-4F81-AF93-E912243EB33A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14E25A11-E78C-4BE7-B8E2-F102E1AB04D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="41">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -136,6 +136,58 @@
   </si>
   <si>
     <t>유저의 등급 (Silver, Gold, VIP, Admin)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Article</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>title</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>writer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>viewCount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>writeDate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>commentCount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DateTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>글 번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>글 제목</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>글 작성자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>글 작성일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>조회수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>댓글수</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -319,7 +371,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -328,7 +380,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -352,6 +403,16 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -636,28 +697,28 @@
   <dimension ref="B2:M20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="B13" sqref="B13:B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="23.375" customWidth="1"/>
-    <col min="3" max="3" width="8.375" customWidth="1"/>
-    <col min="4" max="4" width="8.625" customWidth="1"/>
-    <col min="5" max="5" width="31.75" customWidth="1"/>
+    <col min="3" max="3" width="9.75" customWidth="1"/>
+    <col min="4" max="4" width="16.625" customWidth="1"/>
+    <col min="5" max="5" width="35.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B2" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="19" t="s">
         <v>26</v>
       </c>
       <c r="F2" s="2"/>
@@ -669,13 +730,13 @@
       <c r="M2" s="2"/>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="9" t="s">
         <v>1</v>
       </c>
       <c r="E3" s="3" t="s">
@@ -690,11 +751,11 @@
       <c r="M3" s="2"/>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B4" s="15"/>
-      <c r="C4" s="11" t="s">
+      <c r="B4" s="14"/>
+      <c r="C4" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="D4" s="10" t="s">
         <v>0</v>
       </c>
       <c r="E4" s="4" t="s">
@@ -709,11 +770,11 @@
       <c r="M4" s="2"/>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B5" s="15"/>
-      <c r="C5" s="11" t="s">
+      <c r="B5" s="14"/>
+      <c r="C5" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="D5" s="10" t="s">
         <v>2</v>
       </c>
       <c r="E5" s="4" t="s">
@@ -728,11 +789,11 @@
       <c r="M5" s="2"/>
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B6" s="15"/>
-      <c r="C6" s="12" t="s">
+      <c r="B6" s="14"/>
+      <c r="C6" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="12" t="s">
+      <c r="D6" s="11" t="s">
         <v>3</v>
       </c>
       <c r="E6" s="5" t="s">
@@ -747,11 +808,11 @@
       <c r="M6" s="2"/>
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B7" s="15"/>
-      <c r="C7" s="12" t="s">
+      <c r="B7" s="14"/>
+      <c r="C7" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="12" t="s">
+      <c r="D7" s="11" t="s">
         <v>4</v>
       </c>
       <c r="E7" s="5" t="s">
@@ -766,11 +827,11 @@
       <c r="M7" s="2"/>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B8" s="15"/>
-      <c r="C8" s="12" t="s">
+      <c r="B8" s="14"/>
+      <c r="C8" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="12" t="s">
+      <c r="D8" s="11" t="s">
         <v>5</v>
       </c>
       <c r="E8" s="5" t="s">
@@ -785,11 +846,11 @@
       <c r="M8" s="2"/>
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B9" s="15"/>
-      <c r="C9" s="12" t="s">
+      <c r="B9" s="14"/>
+      <c r="C9" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="12" t="s">
+      <c r="D9" s="11" t="s">
         <v>6</v>
       </c>
       <c r="E9" s="5" t="s">
@@ -804,11 +865,11 @@
       <c r="M9" s="2"/>
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B10" s="15"/>
-      <c r="C10" s="12" t="s">
+      <c r="B10" s="14"/>
+      <c r="C10" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="12" t="s">
+      <c r="D10" s="11" t="s">
         <v>7</v>
       </c>
       <c r="E10" s="5" t="s">
@@ -823,11 +884,11 @@
       <c r="M10" s="2"/>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B11" s="15"/>
-      <c r="C11" s="12" t="s">
+      <c r="B11" s="14"/>
+      <c r="C11" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="12" t="s">
+      <c r="D11" s="11" t="s">
         <v>8</v>
       </c>
       <c r="E11" s="5" t="s">
@@ -842,11 +903,11 @@
       <c r="M11" s="2"/>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B12" s="16"/>
-      <c r="C12" s="13" t="s">
+      <c r="B12" s="15"/>
+      <c r="C12" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="D12" s="13" t="s">
+      <c r="D12" s="12" t="s">
         <v>9</v>
       </c>
       <c r="E12" s="6" t="s">
@@ -861,10 +922,18 @@
       <c r="M12" s="2"/>
     </row>
     <row r="13" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B13" s="1"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
+      <c r="B13" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>35</v>
+      </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
@@ -875,10 +944,16 @@
       <c r="M13" s="2"/>
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B14" s="1"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>36</v>
+      </c>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
@@ -889,10 +964,16 @@
       <c r="M14" s="2"/>
     </row>
     <row r="15" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B15" s="1"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
+      <c r="B15" s="14"/>
+      <c r="C15" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>37</v>
+      </c>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
@@ -903,10 +984,16 @@
       <c r="M15" s="2"/>
     </row>
     <row r="16" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B16" s="1"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
+      <c r="B16" s="14"/>
+      <c r="C16" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>38</v>
+      </c>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
@@ -917,10 +1004,16 @@
       <c r="M16" s="2"/>
     </row>
     <row r="17" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B17" s="1"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
@@ -931,10 +1024,16 @@
       <c r="M17" s="2"/>
     </row>
     <row r="18" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B18" s="1"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
+      <c r="B18" s="15"/>
+      <c r="C18" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="E18" s="17" t="s">
+        <v>40</v>
+      </c>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
@@ -973,8 +1072,9 @@
       <c r="M20" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="B3:B12"/>
+    <mergeCell ref="B13:B18"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/vuejpa/Domain 구성.xlsx
+++ b/vuejpa/Domain 구성.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\study\vuejpa\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14E25A11-E78C-4BE7-B8E2-F102E1AB04D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4ACE055-BD9F-4D55-A42E-FB35513745C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="-27645" yWindow="2370" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="43">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -188,6 +188,14 @@
   </si>
   <si>
     <t>댓글수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>content</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>글 내용</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -395,15 +403,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -413,6 +412,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -696,8 +704,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:M20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13:B18"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -718,7 +726,7 @@
       <c r="D2" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="E2" s="19" t="s">
+      <c r="E2" s="16" t="s">
         <v>26</v>
       </c>
       <c r="F2" s="2"/>
@@ -730,7 +738,7 @@
       <c r="M2" s="2"/>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="17" t="s">
         <v>23</v>
       </c>
       <c r="C3" s="9" t="s">
@@ -751,7 +759,7 @@
       <c r="M3" s="2"/>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B4" s="14"/>
+      <c r="B4" s="18"/>
       <c r="C4" s="10" t="s">
         <v>10</v>
       </c>
@@ -770,7 +778,7 @@
       <c r="M4" s="2"/>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B5" s="14"/>
+      <c r="B5" s="18"/>
       <c r="C5" s="10" t="s">
         <v>10</v>
       </c>
@@ -789,7 +797,7 @@
       <c r="M5" s="2"/>
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B6" s="14"/>
+      <c r="B6" s="18"/>
       <c r="C6" s="11" t="s">
         <v>10</v>
       </c>
@@ -808,7 +816,7 @@
       <c r="M6" s="2"/>
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B7" s="14"/>
+      <c r="B7" s="18"/>
       <c r="C7" s="11" t="s">
         <v>10</v>
       </c>
@@ -827,7 +835,7 @@
       <c r="M7" s="2"/>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B8" s="14"/>
+      <c r="B8" s="18"/>
       <c r="C8" s="11" t="s">
         <v>11</v>
       </c>
@@ -846,7 +854,7 @@
       <c r="M8" s="2"/>
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B9" s="14"/>
+      <c r="B9" s="18"/>
       <c r="C9" s="11" t="s">
         <v>10</v>
       </c>
@@ -865,7 +873,7 @@
       <c r="M9" s="2"/>
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B10" s="14"/>
+      <c r="B10" s="18"/>
       <c r="C10" s="11" t="s">
         <v>12</v>
       </c>
@@ -884,7 +892,7 @@
       <c r="M10" s="2"/>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B11" s="14"/>
+      <c r="B11" s="18"/>
       <c r="C11" s="11" t="s">
         <v>12</v>
       </c>
@@ -903,7 +911,7 @@
       <c r="M11" s="2"/>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B12" s="15"/>
+      <c r="B12" s="19"/>
       <c r="C12" s="12" t="s">
         <v>11</v>
       </c>
@@ -922,13 +930,13 @@
       <c r="M12" s="2"/>
     </row>
     <row r="13" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B13" s="13" t="s">
+      <c r="B13" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="16" t="s">
+      <c r="C13" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="D13" s="16" t="s">
+      <c r="D13" s="13" t="s">
         <v>1</v>
       </c>
       <c r="E13" s="3" t="s">
@@ -944,7 +952,7 @@
       <c r="M13" s="2"/>
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B14" s="14"/>
+      <c r="B14" s="18"/>
       <c r="C14" s="10" t="s">
         <v>10</v>
       </c>
@@ -964,15 +972,15 @@
       <c r="M14" s="2"/>
     </row>
     <row r="15" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B15" s="14"/>
-      <c r="C15" s="10" t="s">
+      <c r="B15" s="18"/>
+      <c r="C15" s="11" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>37</v>
+        <v>41</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>42</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
@@ -984,15 +992,15 @@
       <c r="M15" s="2"/>
     </row>
     <row r="16" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B16" s="14"/>
+      <c r="B16" s="18"/>
       <c r="C16" s="10" t="s">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
@@ -1004,15 +1012,15 @@
       <c r="M16" s="2"/>
     </row>
     <row r="17" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B17" s="14"/>
+      <c r="B17" s="18"/>
       <c r="C17" s="10" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
@@ -1024,15 +1032,15 @@
       <c r="M17" s="2"/>
     </row>
     <row r="18" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B18" s="15"/>
-      <c r="C18" s="18" t="s">
+      <c r="B18" s="19"/>
+      <c r="C18" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D18" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="E18" s="17" t="s">
-        <v>40</v>
+      <c r="D18" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>39</v>
       </c>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
@@ -1045,9 +1053,15 @@
     </row>
     <row r="19" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B19" s="1"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
+      <c r="C19" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="E19" s="14" t="s">
+        <v>40</v>
+      </c>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
